--- a/Data/Summary/Report.xlsx
+++ b/Data/Summary/Report.xlsx
@@ -22,6 +22,15 @@
     <x:t>Referencia</x:t>
   </x:si>
   <x:si>
+    <x:t>TipoProceso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CausaRechazo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Operador</x:t>
+  </x:si>
+  <x:si>
     <x:t>Resultado</x:t>
   </x:si>
   <x:si>
@@ -34,28 +43,292 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>00837202408281501154-29082024</x:t>
+    <x:t>00837202409051512617-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DSP2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Falta de correspondencia entre numeracion y NIF/CIF del abonado.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TELEFÓNICA DE ESPAÑA, S.A.U.</x:t>
   </x:si>
   <x:si>
     <x:t>OK</x:t>
   </x:si>
   <x:si>
-    <x:t>Successful Transaction: 1 - Reference: 00837202408281501154-29082024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TransactionTime: 0h 0m 27s</x:t>
+    <x:t>Successful Transaction: 1 - Reference: 00837202409051512617-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionTime: 0h 0m 31s</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>00837202408271500357-29082024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Successful Transaction: 2 - Reference: 00837202408271500357-29082024</x:t>
+    <x:t>00837202409051512028-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>France Telecom España</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 2 - Reference: 00837202409051512028-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionTime: 0h 0m 29s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051511958-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 3 - Reference: 00837202409051511958-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051510388-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tipo de Acceso Incorrecto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 4 - Reference: 00837202409051510388-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionTime: 0h 0m 24s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051501291-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Falta de correspondencia entre numeración y NIF/CIF del abonado del revendedor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AIRE NETWORKS DEL MEDITERRANEO, S.L.U.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 5 - Reference: 00837202409051501291-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionTime: 0h 0m 28s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051500764-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xtra Telecom S.A.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 6 - Reference: 00837202409051500764-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051500728-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vodafone España S.A.U.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 7 - Reference: 00837202409051500728-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionTime: 0h 0m 25s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051500639-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 8 - Reference: 00837202409051500639-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051500611-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 9 - Reference: 00837202409051500611-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051500577-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 10 - Reference: 00837202409051500577-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409051500542-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 11 - Reference: 00837202409051500542-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 12 - Reference: 00837202409051512617-09092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041512128-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 13 - Reference: 00837202409041512128-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041511665-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vodafone ONO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 14 - Reference: 00837202409041511665-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041511225-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 15 - Reference: 00837202409041511225-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041510639-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 16 - Reference: 00837202409041510639-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041509883-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 17 - Reference: 00837202409041509883-06092024</x:t>
   </x:si>
   <x:si>
     <x:t>TransactionTime: 0h 0m 26s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041508838-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SINEASEN, S.L.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 18 - Reference: 00837202409041508838-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041507296-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 19 - Reference: 00837202409041507296-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041500686-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error System.Exception process state: Could not find the user-interface (UI) element for this action.
+Possible solutions:
+ •  Ensure application is opened and the UI element is visible on the screen at execution time
+ •  Edit the Target of the UI activity and use Validation to debug the issue.
+ •  If needed, re-indicate the element as its properties might have changed
+ •  Use "Check state" activity to check the application state before executing the action
+ •  Increase the "Delay before" value to allow time to the application to render entirely and become responsive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionTime: 0h 7m 7s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041500631-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 21 - Reference: 00837202409041500631-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionTime: 0h 8m 9s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041500604-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 22 - Reference: 00837202409041500604-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041500481-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 23 - Reference: 00837202409041500481-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00837202409041500453-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 24 - Reference: 00837202409041500453-06092024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TransactionTime: 0h 0m 30s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful Transaction: 25 - Reference: 00837202409041500686-06092024</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -106,9 +379,13 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -412,7 +689,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -428,39 +705,658 @@
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>13</x:v>
+      <x:c r="F13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
